--- a/src/assets/temple/sample_users.xlsx
+++ b/src/assets/temple/sample_users.xlsx
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
